--- a/123.xlsx
+++ b/123.xlsx
@@ -1,39 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,57 +44,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -141,7 +99,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,10 +131,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,7 +165,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -384,32 +340,1431 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC855646950J00128792315.htm</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>西斯达实验幼儿园帮厨（郑州市金水区）</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2K-2.5K</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC870506010J00161812910.htm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>调馅师傅</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ609562780J00165470314.htm</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>帮厨</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ454087620J00375026303.htm</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>帮厨</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC583005920J00234423801.htm</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>行政专员（协会）</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3K-5K</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC530734188J00163875015.htm</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>西点/裱花/烘焙师傅</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6K-8K</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC562574930J00168700314.htm</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>诚聘海员 机工 电工 焊工</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8K-15K</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CCL1200071630J00168577712.htm</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>海员/机工/水手/大厨</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10K-15K</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC687530837J00132413709.htm</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>烘焙师傅</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC514555621J00172628913.htm</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>配菜/打荷包吃住</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/355591615251190.htm</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>康桥幼儿园面点师</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3K-4.5K</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC218605114J00252042308.htm</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>销售经理（特通渠道）</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8K-12K</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC287476082J00383096101.htm</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>国企直招远洋货轮海员</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10K-15K</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC547733730J00167435713.htm</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>高薪诚聘连锁店后厨/助理（20多家门店就近安排）</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6K-8K</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ672834230J00157654913.htm</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>面点师【国际豪华邮轮】</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10K-15K</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/342081935250002.htm</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>网络营销包食宿</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC121059102J00214561207.htm</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>餐饮经理</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10K-15K</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/342081935250010.htm</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>网络销售高提成包食宿</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6K-8K</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/342081935250006.htm</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>网络咨询高提成包食宿</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC687530837J00052531709.htm</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>后勤管理员</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3K-3.5K</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ672834230J00157823013.htm</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>船员</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10K-20K</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ819862440J00112064013.htm</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>面点师傅</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/342081935250012.htm</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>医疗网络咨询</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/342081935250009.htm</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>咨询医生高提成包吃住</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ672834230J00157822013.htm</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>船舶</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10K-20K</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC846459000J00139882412.htm</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>面点师</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>6K-12K</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC279822417J00059335902.htm</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>巩义电厂运行员（包食宿）</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2.5K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/147088946250006.htm</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>炒菜师傅</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ672834230J00111699913.htm</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>招生代理</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>10K-15K</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/148064466250454.htm</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>研发工程师</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5K-7K</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC147088946J00065818107.htm</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>砧板主管（中央厨房）</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3.5K-5K</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC535056423J00333108203.htm</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>高薪诚聘炒菜师傅</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>6K-8K</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/622929624250165.htm</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>日料技师</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3K-5K</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/622929624250163.htm</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>寿司学徒</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ627677780J00096410212.htm</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>炒锅师傅</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4K-5K</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC845396620J00179265113.htm</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>面点师</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC865183050J00161779315.htm</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>面点师</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC887934920J00184296413.htm</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>西餐讲师</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC868693800J00158119912.htm</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>面点师</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ627677780J00161937812.htm</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>砧板/打荷</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2.6K-3K</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/622929624250164.htm</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>日餐后厨学徒</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ823317390J00138252509.htm</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>西式面点师</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3K-5K</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC535056423J00331357803.htm</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>高薪诚聘茶艺师</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC713605930J00137117812.htm</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>厨工</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC521009586J00093039009.htm</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>行政专员</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3K-5K</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC595436427J00341890503.htm</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>包吃住招聘面点师傅大工中工</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>3K-4.5K</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC535056423J00331359503.htm</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>高薪诚聘服务员</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC535056423J00177009503.htm</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>高薪诚聘前台接待</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC535056423J00185581203.htm</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>兼职服务员</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/147088946250023.htm</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>面点大师</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>6K-8K</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC420526886J00157701015.htm</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>西餐后厨员工</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ301611180J00036997407.htm</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>面点师（西亚斯国际幼儿园）</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ842643940J00150291313.htm</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>水果装卸工、搬运工</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC847995690J00122794510.htm</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>西餐研发</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC583005920J00256277701.htm</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>行政文员</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>3K-5K</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC847995690J00122792910.htm</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>中式面点研发</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC274170219J00286807006.htm</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>餐饮经理</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ552592230J00089433114.htm</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>行政专员</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>3K-5K</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ415557080J00155074014.htm</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>餐厅责任经理</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>6K-8K</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ843091450J00157185509.htm</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>高薪招聘包子工</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC439730680J00136957615.htm</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>厨房主厨</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>3K-5K</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC864265320J00162945612.htm</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>后厨</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ655287520J00182961211.htm</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>安卓开发</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>7K-10K</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC195386026J00197067711.htm</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>早点师</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ137468480J00407969701.htm</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>食堂帮厨</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2K-2.5K</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ332305430J00112959812.htm</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>烘焙助理（人才储备）</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1K-2K</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ845192990J00178401513.htm</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>烤鸭师傅</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC886598010J00158237315.htm</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>后厨人员</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC886082410J00169547710.htm</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>包子工</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC545600830J00187357013.htm</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>炒菜师傅</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>5K-8K</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC687030830J00176876710.htm</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>执行总经理</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>6K-8K</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ563610980J00160164112.htm</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>有好生鲜厨工</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC856497700J00370599203.htm</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>希岸酒店招聘帮厨</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CCL1200184220J00164198215.htm</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>蛋糕师</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC865438090J00202633511.htm</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>帮厨</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC153483614J00142481314.htm</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>餐饮服务员</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC277953584J00405767305.htm</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>驻非洲管理岗位（工作地点非洲马拉维）</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>10K-15K</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC137371340J00164713314.htm</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>中式面点</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>4K-6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC687030830J00176861610.htm</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>前厅经理</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>6K-8K</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CCL1200206970J00164133515.htm</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>学校餐厅切配面点</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ818541460J00168569312.htm</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>包食宿招做饭生活老师</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2K-4K</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CC818405510J00204698011.htm</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>烧腊师傅</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5K-8K</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://jobs.zhaopin.com/CZ617940480J00177290110.htm</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>后厨</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3.5K-4.5K</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>